--- a/Linear Single Step/output.xlsx
+++ b/Linear Single Step/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Total Cost</t>
   </si>
@@ -22,12 +22,18 @@
     <t>crudeoil</t>
   </si>
   <si>
+    <t>natgas</t>
+  </si>
+  <si>
     <t>biomass</t>
   </si>
   <si>
     <t>hydrogen</t>
   </si>
   <si>
+    <t>electricity</t>
+  </si>
+  <si>
     <t>RefineryProduction</t>
   </si>
   <si>
@@ -37,6 +43,24 @@
     <t>Refinery-diesel</t>
   </si>
   <si>
+    <t>Refinery-kerosene</t>
+  </si>
+  <si>
+    <t>Refinery2Production</t>
+  </si>
+  <si>
+    <t>Refinery2-gasoline</t>
+  </si>
+  <si>
+    <t>Refinery2-diesel</t>
+  </si>
+  <si>
+    <t>NGCondProduction</t>
+  </si>
+  <si>
+    <t>NGCond-cng</t>
+  </si>
+  <si>
     <t>BtDProduction</t>
   </si>
   <si>
@@ -49,10 +73,22 @@
     <t>BtL-gasoline</t>
   </si>
   <si>
-    <t>MtDProduction</t>
-  </si>
-  <si>
-    <t>MtD-diesel</t>
+    <t>BM-MethProduction</t>
+  </si>
+  <si>
+    <t>BM-Meth-cng</t>
+  </si>
+  <si>
+    <t>BM-MeOHProduction</t>
+  </si>
+  <si>
+    <t>BM-MeOH-gasoline</t>
+  </si>
+  <si>
+    <t>BM-DMEProduction</t>
+  </si>
+  <si>
+    <t>BM-DME-diesel</t>
   </si>
   <si>
     <t>MtGProduction</t>
@@ -61,6 +97,45 @@
     <t>MtG-gasoline</t>
   </si>
   <si>
+    <t>PtF-FT1Production</t>
+  </si>
+  <si>
+    <t>PtF-FT1-gasoline</t>
+  </si>
+  <si>
+    <t>PtF-FT1-diesel</t>
+  </si>
+  <si>
+    <t>PtF-FT2Production</t>
+  </si>
+  <si>
+    <t>PtF-FT2-gasoline</t>
+  </si>
+  <si>
+    <t>PtF-FT2-diesel</t>
+  </si>
+  <si>
+    <t>PtF-FT2-kerosene</t>
+  </si>
+  <si>
+    <t>PtF-MethProduction</t>
+  </si>
+  <si>
+    <t>PtF-Meth-cng</t>
+  </si>
+  <si>
+    <t>PtF-MeOHProduction</t>
+  </si>
+  <si>
+    <t>PtF-MeOH-gasoline</t>
+  </si>
+  <si>
+    <t>PtF-DMEProduction</t>
+  </si>
+  <si>
+    <t>PtF-DME-diesel</t>
+  </si>
+  <si>
     <t>PVGasProduction</t>
   </si>
   <si>
@@ -97,25 +172,64 @@
     <t>TruckSZM-tkm</t>
   </si>
   <si>
+    <t>PVcngProduction</t>
+  </si>
+  <si>
+    <t>PVcng-pkm</t>
+  </si>
+  <si>
+    <t>TruckN1_ngProduction</t>
+  </si>
+  <si>
+    <t>TruckN1_ng-tkm</t>
+  </si>
+  <si>
+    <t>TruckN2_ngProduction</t>
+  </si>
+  <si>
+    <t>TruckN2_ng-tkm</t>
+  </si>
+  <si>
+    <t>TruckN3_ngProduction</t>
+  </si>
+  <si>
+    <t>TruckN3_ng-tkm</t>
+  </si>
+  <si>
+    <t>TruckSZM_ngProduction</t>
+  </si>
+  <si>
+    <t>TruckSZM_ng-tkm</t>
+  </si>
+  <si>
     <t>GasolineHubUsage</t>
   </si>
   <si>
     <t>DieselHubUsage</t>
   </si>
   <si>
+    <t>KeroseneHubUsage</t>
+  </si>
+  <si>
+    <t>MethaneHubUsage</t>
+  </si>
+  <si>
+    <t>tkm-N2Usage</t>
+  </si>
+  <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
     <t>tkm-SZMUsage</t>
   </si>
   <si>
-    <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-N2Usage</t>
-  </si>
-  <si>
     <t>pkmUsage</t>
   </si>
   <si>
     <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>keroseneUsage</t>
   </si>
 </sst>
 </file>
@@ -473,13 +587,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:BU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:73">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,37 +696,151 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:73">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>37.65025520601402</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1190.475409836065</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>354.9100221530673</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1107.142131147541</v>
+        <v>2041.829144604735</v>
       </c>
       <c r="G2">
-        <v>365.3569032786885</v>
+        <v>207.0328368011472</v>
       </c>
       <c r="H2">
-        <v>741.7852278688525</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -621,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>298.1244186085765</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>298.1244186085765</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -633,61 +861,175 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>288.4396604831751</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>288.4396604831752</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>569.5603395168248</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>569.5603395168248</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>130.3</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>130.3</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>414.5</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>414.5</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>365.3569032786885</v>
+        <v>1491.73788300216</v>
       </c>
       <c r="AD2">
-        <v>1255.909646477429</v>
+        <v>460.9884430110843</v>
       </c>
       <c r="AE2">
-        <v>414.5</v>
+        <v>1030.749439991076</v>
       </c>
       <c r="AF2">
-        <v>130.3</v>
+        <v>166.8965517241379</v>
       </c>
       <c r="AG2">
-        <v>24.2</v>
+        <v>40.88965517241379</v>
       </c>
       <c r="AH2">
-        <v>858</v>
+        <v>5.006896551724139</v>
       </c>
       <c r="AI2">
-        <v>7.5</v>
+        <v>121</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>50</v>
+      </c>
+      <c r="AO2">
+        <v>50</v>
+      </c>
+      <c r="AP2">
+        <v>396.2195511974985</v>
+      </c>
+      <c r="AQ2">
+        <v>396.2195511974985</v>
+      </c>
+      <c r="AR2">
+        <v>442.5804488025015</v>
+      </c>
+      <c r="AS2">
+        <v>442.5804488025015</v>
+      </c>
+      <c r="AT2">
+        <v>8</v>
+      </c>
+      <c r="AU2">
+        <v>8</v>
+      </c>
+      <c r="AV2">
+        <v>26.2</v>
+      </c>
+      <c r="AW2">
+        <v>26.2</v>
+      </c>
+      <c r="AX2">
+        <v>123.8</v>
+      </c>
+      <c r="AY2">
+        <v>123.8</v>
+      </c>
+      <c r="AZ2">
+        <v>388.5</v>
+      </c>
+      <c r="BA2">
+        <v>388.5</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>501.8780981834981</v>
+      </c>
+      <c r="BM2">
+        <v>1085.7563365428</v>
+      </c>
+      <c r="BN2">
+        <v>121</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>26.2</v>
+      </c>
+      <c r="BQ2">
+        <v>123.8</v>
+      </c>
+      <c r="BR2">
+        <v>388.5</v>
+      </c>
+      <c r="BS2">
+        <v>838.8</v>
+      </c>
+      <c r="BT2">
+        <v>8</v>
+      </c>
+      <c r="BU2">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Linear Single Step/output.xlsx
+++ b/Linear Single Step/output.xlsx
@@ -214,22 +214,22 @@
     <t>MethaneHubUsage</t>
   </si>
   <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>keroseneUsage</t>
+  </si>
+  <si>
     <t>tkm-N2Usage</t>
   </si>
   <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
     <t>tkm-N3Usage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>keroseneUsage</t>
   </si>
 </sst>
 </file>
@@ -816,49 +816,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2969344.144413812</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1177.369968223092</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>174.6711445919873</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2041.829144604735</v>
+        <v>539.1010105329111</v>
       </c>
       <c r="G2">
-        <v>207.0328368011472</v>
+        <v>50.01256931675417</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>865.6153846153844</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>502.6153846153845</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>229.338685832091</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>74.58168644946049</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>154.7569993826305</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>171.0515151515152</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>171.0515151515152</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -897,25 +897,25 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>1491.73788300216</v>
+        <v>360.0785051643636</v>
       </c>
       <c r="AD2">
-        <v>460.9884430110843</v>
+        <v>111.2742602764874</v>
       </c>
       <c r="AE2">
-        <v>1030.749439991076</v>
+        <v>248.8042448878763</v>
       </c>
       <c r="AF2">
-        <v>166.8965517241379</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>40.88965517241379</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>5.006896551724139</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>49.99999999999999</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>49.99999999999999</v>
       </c>
       <c r="AN2">
         <v>50</v>
@@ -936,22 +936,22 @@
         <v>50</v>
       </c>
       <c r="AP2">
-        <v>396.2195511974985</v>
+        <v>377.254694783643</v>
       </c>
       <c r="AQ2">
-        <v>396.2195511974985</v>
+        <v>377.254694783643</v>
       </c>
       <c r="AR2">
-        <v>442.5804488025015</v>
+        <v>377.665305216357</v>
       </c>
       <c r="AS2">
-        <v>442.5804488025015</v>
+        <v>377.665305216357</v>
       </c>
       <c r="AT2">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AU2">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AV2">
         <v>26.2</v>
@@ -960,28 +960,28 @@
         <v>26.2</v>
       </c>
       <c r="AX2">
-        <v>123.8</v>
+        <v>111.42</v>
       </c>
       <c r="AY2">
-        <v>123.8</v>
+        <v>111.42</v>
       </c>
       <c r="AZ2">
-        <v>388.5</v>
+        <v>349.65</v>
       </c>
       <c r="BA2">
-        <v>388.5</v>
+        <v>349.65</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>83.88</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>83.88</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="BF2">
         <v>0</v>
@@ -990,46 +990,46 @@
         <v>0</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>12.38</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>12.38</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>38.85</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>38.85000000000002</v>
       </c>
       <c r="BL2">
-        <v>501.8780981834981</v>
+        <v>477.8559467259478</v>
       </c>
       <c r="BM2">
-        <v>1085.7563365428</v>
+        <v>956.1766288858913</v>
       </c>
       <c r="BN2">
         <v>121</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>171.0515151515152</v>
       </c>
       <c r="BP2">
+        <v>838.8</v>
+      </c>
+      <c r="BQ2">
+        <v>8</v>
+      </c>
+      <c r="BR2">
+        <v>121</v>
+      </c>
+      <c r="BS2">
         <v>26.2</v>
       </c>
-      <c r="BQ2">
+      <c r="BT2">
+        <v>388.5</v>
+      </c>
+      <c r="BU2">
         <v>123.8</v>
-      </c>
-      <c r="BR2">
-        <v>388.5</v>
-      </c>
-      <c r="BS2">
-        <v>838.8</v>
-      </c>
-      <c r="BT2">
-        <v>8</v>
-      </c>
-      <c r="BU2">
-        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Linear Single Step/output.xlsx
+++ b/Linear Single Step/output.xlsx
@@ -214,22 +214,22 @@
     <t>MethaneHubUsage</t>
   </si>
   <si>
+    <t>tkm-N3Usage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
     <t>tkm-N2Usage</t>
   </si>
   <si>
-    <t>tkm-N3Usage</t>
+    <t>keroseneUsage</t>
   </si>
   <si>
     <t>tkm-SZMUsage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>keroseneUsage</t>
   </si>
 </sst>
 </file>
@@ -1014,22 +1014,22 @@
         <v>0</v>
       </c>
       <c r="BP2">
+        <v>123.8</v>
+      </c>
+      <c r="BQ2">
+        <v>8</v>
+      </c>
+      <c r="BR2">
+        <v>838.8</v>
+      </c>
+      <c r="BS2">
         <v>26.2</v>
       </c>
-      <c r="BQ2">
-        <v>123.8</v>
-      </c>
-      <c r="BR2">
+      <c r="BT2">
+        <v>121</v>
+      </c>
+      <c r="BU2">
         <v>388.5</v>
-      </c>
-      <c r="BS2">
-        <v>838.8</v>
-      </c>
-      <c r="BT2">
-        <v>8</v>
-      </c>
-      <c r="BU2">
-        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Linear Single Step/output.xlsx
+++ b/Linear Single Step/output.xlsx
@@ -214,22 +214,22 @@
     <t>MethaneHubUsage</t>
   </si>
   <si>
+    <t>pkmUsage</t>
+  </si>
+  <si>
+    <t>tkm-N1Usage</t>
+  </si>
+  <si>
+    <t>keroseneUsage</t>
+  </si>
+  <si>
+    <t>tkm-SZMUsage</t>
+  </si>
+  <si>
     <t>tkm-N3Usage</t>
   </si>
   <si>
-    <t>tkm-N1Usage</t>
-  </si>
-  <si>
-    <t>pkmUsage</t>
-  </si>
-  <si>
     <t>tkm-N2Usage</t>
-  </si>
-  <si>
-    <t>keroseneUsage</t>
-  </si>
-  <si>
-    <t>tkm-SZMUsage</t>
   </si>
 </sst>
 </file>
@@ -1014,22 +1014,22 @@
         <v>0</v>
       </c>
       <c r="BP2">
-        <v>123.8</v>
+        <v>838.8</v>
       </c>
       <c r="BQ2">
         <v>8</v>
       </c>
       <c r="BR2">
-        <v>838.8</v>
+        <v>121</v>
       </c>
       <c r="BS2">
+        <v>388.5</v>
+      </c>
+      <c r="BT2">
+        <v>123.8</v>
+      </c>
+      <c r="BU2">
         <v>26.2</v>
-      </c>
-      <c r="BT2">
-        <v>121</v>
-      </c>
-      <c r="BU2">
-        <v>388.5</v>
       </c>
     </row>
   </sheetData>
